--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -56,10 +56,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,20 +78,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -101,47 +87,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,11 +107,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +146,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -185,8 +162,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,13 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +255,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +291,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,43 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,44 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,6 +452,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -501,6 +472,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,18 +525,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1034,12 +1034,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3321,33 +3321,180 @@
         <v>44294</v>
       </c>
       <c r="B152" s="1">
-        <v>18720</v>
+        <v>26000</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="1">
         <f t="shared" si="7"/>
-        <v>157702</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5">
-      <c r="E153" s="1" t="str">
+        <v>150422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="7">
+        <v>44295</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44720</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="1" t="str">
+        <v>105702</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="7">
+        <v>44296</v>
+      </c>
+      <c r="B154" s="1">
+        <v>29120</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="5:5">
-      <c r="E155" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+        <v>76582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="7">
+        <v>44297</v>
+      </c>
+      <c r="C155" s="1">
+        <v>18992</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1">
+        <f t="shared" ref="E155:E162" si="8">IF(A155="","",SUM(E154-B155+C155))</f>
+        <v>95574</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7">
+        <v>44297</v>
+      </c>
+      <c r="C156" s="1">
+        <v>31654</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1">
+        <f t="shared" si="8"/>
+        <v>127228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="7">
+        <v>44297</v>
+      </c>
+      <c r="B157" s="1">
+        <v>59280</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" si="8"/>
+        <v>67948</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="7">
+        <v>44298</v>
+      </c>
+      <c r="C158" s="1">
+        <v>84410</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1">
+        <f t="shared" si="8"/>
+        <v>152358</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="7">
+        <v>44298</v>
+      </c>
+      <c r="B159" s="1">
+        <v>53040</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="1">
+        <f t="shared" si="8"/>
+        <v>99318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="7">
+        <v>44299</v>
+      </c>
+      <c r="C160" s="1">
+        <v>105513</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1">
+        <f t="shared" si="8"/>
+        <v>204831</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="7">
+        <v>44299</v>
+      </c>
+      <c r="B161" s="1">
+        <v>46800</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1">
+        <f t="shared" si="8"/>
+        <v>158031</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="7">
+        <v>44300</v>
+      </c>
+      <c r="B162" s="1">
+        <v>9360</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="1">
+        <f t="shared" si="8"/>
+        <v>148671</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="7"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="7"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="7"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="7"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,43 +78,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -123,26 +86,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,23 +101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,7 +116,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,12 +163,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -215,8 +185,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,31 +255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,43 +285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +315,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,8 +455,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,7 +495,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,21 +507,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,8 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1034,12 +1034,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3462,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="E161" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E161:E189" si="9">IF(A161="","",SUM(E160-B161+C161))</f>
         <v>158031</v>
       </c>
     </row>
@@ -3471,30 +3471,268 @@
         <v>44300</v>
       </c>
       <c r="B162" s="1">
-        <v>9360</v>
+        <v>24960</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E162" s="1">
-        <f t="shared" si="8"/>
-        <v>148671</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="7"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="7"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="7"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="7"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="7"/>
+        <f t="shared" si="9"/>
+        <v>133071</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="7">
+        <v>44301</v>
+      </c>
+      <c r="C163" s="1">
+        <v>11923</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1">
+        <f t="shared" si="9"/>
+        <v>144994</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="7">
+        <v>44301</v>
+      </c>
+      <c r="B164" s="1">
+        <v>68640</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1">
+        <f t="shared" si="9"/>
+        <v>76354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="7">
+        <v>44302</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44949</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1">
+        <f t="shared" si="9"/>
+        <v>121303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7">
+        <v>44302</v>
+      </c>
+      <c r="B166" s="1">
+        <v>38480</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="1">
+        <f t="shared" si="9"/>
+        <v>82823</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="7">
+        <v>44303</v>
+      </c>
+      <c r="C167" s="1">
+        <v>63308</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="1">
+        <f t="shared" si="9"/>
+        <v>146131</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7">
+        <v>44303</v>
+      </c>
+      <c r="B168" s="1">
+        <v>30160</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="1">
+        <f t="shared" si="9"/>
+        <v>115971</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="7">
+        <v>44304</v>
+      </c>
+      <c r="B169" s="1">
+        <v>56160</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="1">
+        <f t="shared" si="9"/>
+        <v>59811</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="7">
+        <v>44305</v>
+      </c>
+      <c r="C170" s="1">
+        <v>52757</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1">
+        <f t="shared" si="9"/>
+        <v>112568</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="7">
+        <v>44305</v>
+      </c>
+      <c r="C171" s="1">
+        <v>48536</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1">
+        <f t="shared" si="9"/>
+        <v>161104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="7">
+        <v>44305</v>
+      </c>
+      <c r="B172" s="1">
+        <v>33280</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="1">
+        <f t="shared" si="9"/>
+        <v>127824</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="7"/>
+      <c r="E173" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="5:5">
+      <c r="E178" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="5:5">
+      <c r="E179" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="5:5">
+      <c r="E180" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="5:5">
+      <c r="E181" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="5:5">
+      <c r="E182" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="5:5">
+      <c r="E188" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="5:5">
+      <c r="E189" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3505,13 +3743,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1428571428571" style="1" customWidth="1"/>
@@ -3568,12 +3806,26 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>15861</v>
       </c>
       <c r="B4" s="7">
         <v>44288</v>
+      </c>
+      <c r="F4" s="1">
+        <v>63</v>
+      </c>
+      <c r="G4" s="7">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7">
+      <c r="F5" s="1">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7">
+        <v>44302</v>
       </c>
     </row>
   </sheetData>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="3" r:id="rId1"/>
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,25 +79,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,8 +93,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,8 +108,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,9 +147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,46 +172,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +186,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +255,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +357,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,133 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,26 +437,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +457,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,7 +510,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,44 +534,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1036,7 +1036,7 @@
   <sheetPr/>
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
@@ -3743,13 +3743,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1428571428571" style="1" customWidth="1"/>
@@ -3820,12 +3820,26 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="5" spans="6:7">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>21251</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44307</v>
+      </c>
       <c r="F5" s="1">
         <v>48</v>
       </c>
       <c r="G5" s="7">
         <v>44302</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7">
+        <v>44307</v>
       </c>
     </row>
   </sheetData>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,11 +78,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,9 +93,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,14 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -125,7 +117,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -140,10 +140,34 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,9 +178,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,45 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,49 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +261,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +339,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,55 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,43 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,11 +437,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,45 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -539,10 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,76 +557,97 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,31 +656,25 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,23 +683,8 @@
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,7 +706,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1034,12 +1037,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
+      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1373,7 +1376,7 @@
       <c r="B22" s="1">
         <v>58240</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="1">
@@ -1388,7 +1391,7 @@
       <c r="B23" s="1">
         <v>50960</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1">
@@ -1403,7 +1406,7 @@
       <c r="B24" s="1">
         <v>34320</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="1">
@@ -1418,7 +1421,7 @@
       <c r="B25" s="1">
         <v>40560</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1">
@@ -1433,7 +1436,7 @@
       <c r="B26" s="1">
         <v>66560</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1">
@@ -1463,7 +1466,7 @@
       <c r="B28" s="1">
         <v>58240</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="1">
@@ -1478,7 +1481,7 @@
       <c r="B29" s="1">
         <v>53040</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1">
@@ -1493,7 +1496,7 @@
       <c r="B30" s="1">
         <v>47840</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1">
@@ -1508,7 +1511,7 @@
       <c r="B31" s="1">
         <v>46800</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1">
@@ -1538,7 +1541,7 @@
       <c r="B33" s="1">
         <v>33280</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="1">
@@ -1553,7 +1556,7 @@
       <c r="B34" s="1">
         <v>58240</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="1">
@@ -1568,7 +1571,7 @@
       <c r="B35" s="1">
         <v>57200</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1">
@@ -1598,7 +1601,7 @@
       <c r="B37" s="1">
         <v>35360</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1">
@@ -1628,7 +1631,7 @@
       <c r="B39" s="1">
         <v>42640</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1">
@@ -1643,7 +1646,7 @@
       <c r="B40" s="1">
         <v>57200</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1">
@@ -1673,7 +1676,7 @@
       <c r="B42" s="1">
         <v>41080</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1">
@@ -1703,7 +1706,7 @@
       <c r="B44" s="1">
         <v>53040</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1">
@@ -1733,7 +1736,7 @@
       <c r="B46" s="1">
         <v>45760</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="1">
@@ -1748,7 +1751,7 @@
       <c r="B47" s="1">
         <v>47840</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="1">
@@ -1778,7 +1781,7 @@
       <c r="B49" s="1">
         <v>26000</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="1">
@@ -1793,7 +1796,7 @@
       <c r="B50" s="1">
         <v>45760</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="1">
@@ -1808,7 +1811,7 @@
       <c r="B51" s="1">
         <v>68640</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="1">
@@ -1823,7 +1826,7 @@
       <c r="B52" s="1">
         <v>54080</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="1">
@@ -1838,7 +1841,7 @@
       <c r="B53" s="1">
         <v>46280</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="1">
@@ -1853,7 +1856,7 @@
       <c r="B54" s="1">
         <v>28080</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="1">
@@ -1883,7 +1886,7 @@
       <c r="B56" s="1">
         <v>42640</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="1">
@@ -1898,7 +1901,7 @@
       <c r="B57" s="1">
         <v>58760</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="1">
@@ -1913,7 +1916,7 @@
       <c r="B58" s="1">
         <v>42640</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="1">
@@ -1928,7 +1931,7 @@
       <c r="B59" s="1">
         <v>47840</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="1">
@@ -1988,7 +1991,7 @@
       <c r="B63" s="1">
         <v>48880</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="1">
@@ -2003,7 +2006,7 @@
       <c r="B64" s="1">
         <v>67600</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="1">
@@ -2018,7 +2021,7 @@
       <c r="B65" s="1">
         <v>38480</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1">
@@ -2033,7 +2036,7 @@
       <c r="B66" s="1">
         <v>24960</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="1">
@@ -2063,7 +2066,7 @@
       <c r="B68" s="1">
         <v>75920</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1">
@@ -2078,7 +2081,7 @@
       <c r="B69" s="1">
         <v>34320</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="1">
@@ -2108,7 +2111,7 @@
       <c r="B71" s="1">
         <v>29120</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="1">
@@ -2123,7 +2126,7 @@
       <c r="B72" s="1">
         <v>54080</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="1">
@@ -2138,7 +2141,7 @@
       <c r="B73" s="1">
         <v>38480</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="1">
@@ -2153,7 +2156,7 @@
       <c r="B74" s="1">
         <v>43680</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1">
@@ -2183,7 +2186,7 @@
       <c r="B76" s="1">
         <v>38480</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="1">
@@ -2198,7 +2201,7 @@
       <c r="B77" s="1">
         <v>46800</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="1">
@@ -2213,7 +2216,7 @@
       <c r="B78" s="1">
         <v>33280</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1">
@@ -2228,7 +2231,7 @@
       <c r="B79" s="1">
         <v>40560</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1">
@@ -2243,7 +2246,7 @@
       <c r="B80" s="1">
         <v>44720</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="1">
@@ -2288,7 +2291,7 @@
       <c r="B83" s="1">
         <v>49920</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1">
@@ -2318,7 +2321,7 @@
       <c r="B85" s="1">
         <v>38480</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="1">
@@ -2348,7 +2351,7 @@
       <c r="B87" s="1">
         <v>54080</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="1">
@@ -2363,7 +2366,7 @@
       <c r="B88" s="1">
         <v>60320</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="1">
@@ -2405,10 +2408,10 @@
       <c r="A91" s="7">
         <v>44261</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="10">
         <v>41600</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="1">
@@ -2423,7 +2426,7 @@
       <c r="B92" s="1">
         <v>45760</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="1">
@@ -2453,7 +2456,7 @@
       <c r="B94" s="1">
         <v>46280</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="1">
@@ -2483,7 +2486,7 @@
       <c r="B96" s="1">
         <v>52000</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="1">
@@ -2498,7 +2501,7 @@
       <c r="B97" s="1">
         <v>20800</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="1">
@@ -2513,7 +2516,7 @@
       <c r="B98" s="1">
         <v>65520</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="1">
@@ -2543,7 +2546,7 @@
       <c r="B100" s="1">
         <v>45760</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E100" s="1">
@@ -2573,7 +2576,7 @@
       <c r="B102" s="1">
         <v>42120</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E102" s="1">
@@ -2588,7 +2591,7 @@
       <c r="B103" s="1">
         <v>50960</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E103" s="1">
@@ -2618,7 +2621,7 @@
       <c r="B105" s="1">
         <v>44720</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E105" s="1">
@@ -2648,7 +2651,7 @@
       <c r="B107" s="1">
         <v>59280</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E107" s="1">
@@ -2693,7 +2696,7 @@
       <c r="B110" s="1">
         <v>27040</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E110" s="1">
@@ -2708,7 +2711,7 @@
       <c r="B111" s="1">
         <v>29120</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E111" s="1">
@@ -2738,7 +2741,7 @@
       <c r="B113" s="1">
         <v>48880</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E113" s="1">
@@ -2768,7 +2771,7 @@
       <c r="B115" s="1">
         <v>50960</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E115" s="1">
@@ -2783,7 +2786,7 @@
       <c r="B116" s="1">
         <v>41600</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E116" s="1">
@@ -2813,7 +2816,7 @@
       <c r="B118" s="1">
         <v>46800</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1">
@@ -2873,7 +2876,7 @@
       <c r="B122" s="1">
         <v>45760</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="1">
@@ -2888,7 +2891,7 @@
       <c r="B123" s="1">
         <v>23920</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E123" s="1">
@@ -2933,7 +2936,7 @@
       <c r="B126" s="1">
         <v>53040</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="1">
@@ -2963,7 +2966,7 @@
       <c r="B128" s="1">
         <v>46800</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="1">
@@ -2993,7 +2996,7 @@
       <c r="B130" s="1">
         <v>30160</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E130" s="1">
@@ -3023,7 +3026,7 @@
       <c r="B132" s="1">
         <v>44200</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E132" s="1">
@@ -3038,7 +3041,7 @@
       <c r="B133" s="1">
         <v>31200</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="1">
@@ -3068,7 +3071,7 @@
       <c r="B135" s="1">
         <v>20800</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E135" s="1">
@@ -3098,7 +3101,7 @@
       <c r="B137" s="1">
         <v>40560</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E137" s="1">
@@ -3128,7 +3131,7 @@
       <c r="B139" s="1">
         <v>44200</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E139" s="1">
@@ -3143,7 +3146,7 @@
       <c r="B140" s="1">
         <v>65520</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E140" s="1">
@@ -3173,7 +3176,7 @@
       <c r="B142" s="1">
         <v>65520</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E142" s="1">
@@ -3203,7 +3206,7 @@
       <c r="B144" s="1">
         <v>50960</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E144" s="1">
@@ -3233,7 +3236,7 @@
       <c r="B146" s="1">
         <v>65520</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E146" s="1">
@@ -3263,7 +3266,7 @@
       <c r="B148" s="1">
         <v>48880</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E148" s="1">
@@ -3293,7 +3296,7 @@
       <c r="B150" s="1">
         <v>41600</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E150" s="1">
@@ -3323,7 +3326,7 @@
       <c r="B152" s="1">
         <v>26000</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="1">
@@ -3338,7 +3341,7 @@
       <c r="B153" s="1">
         <v>44720</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="1">
@@ -3353,7 +3356,7 @@
       <c r="B154" s="1">
         <v>29120</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E154" s="1">
@@ -3398,7 +3401,7 @@
       <c r="B157" s="1">
         <v>59280</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E157" s="1">
@@ -3428,7 +3431,7 @@
       <c r="B159" s="1">
         <v>53040</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E159" s="1">
@@ -3458,7 +3461,7 @@
       <c r="B161" s="1">
         <v>46800</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E161" s="1">
@@ -3473,7 +3476,7 @@
       <c r="B162" s="1">
         <v>24960</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E162" s="1">
@@ -3503,7 +3506,7 @@
       <c r="B164" s="1">
         <v>68640</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E164" s="1">
@@ -3533,7 +3536,7 @@
       <c r="B166" s="1">
         <v>38480</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E166" s="1">
@@ -3563,7 +3566,7 @@
       <c r="B168" s="1">
         <v>30160</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="1">
@@ -3578,7 +3581,7 @@
       <c r="B169" s="1">
         <v>56160</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="1">
@@ -3623,7 +3626,7 @@
       <c r="B172" s="1">
         <v>33280</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="1">
@@ -3632,106 +3635,408 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="7"/>
-      <c r="E173" s="1" t="str">
+      <c r="A173" s="7">
+        <v>44306</v>
+      </c>
+      <c r="B173" s="1">
+        <v>43680</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="5:5">
-      <c r="E174" s="1" t="str">
+        <v>84144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="7">
+        <v>44307</v>
+      </c>
+      <c r="B174" s="1">
+        <v>58240</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="5:5">
-      <c r="E175" s="1" t="str">
+        <v>25904</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="7">
+        <v>44307</v>
+      </c>
+      <c r="C175" s="1">
+        <v>21103</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="5:5">
-      <c r="E176" s="1" t="str">
+        <v>47007</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="7">
+        <v>44308</v>
+      </c>
+      <c r="C176" s="1">
+        <v>52757</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="5:5">
-      <c r="E177" s="1" t="str">
+        <v>99764</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="7">
+        <v>44308</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5200</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="5:5">
-      <c r="E178" s="1" t="str">
+        <v>94564</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7">
+        <v>44308</v>
+      </c>
+      <c r="C178" s="1">
+        <v>74492</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="5:5">
-      <c r="E179" s="1" t="str">
+        <v>169056</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7">
+        <v>44309</v>
+      </c>
+      <c r="B179" s="1">
+        <v>80080</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="5:5">
-      <c r="E180" s="1" t="str">
+        <v>88976</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7">
+        <v>44310</v>
+      </c>
+      <c r="C180" s="1">
+        <v>47481</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="1" t="str">
+        <v>136457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7">
+        <v>44310</v>
+      </c>
+      <c r="B181" s="1">
+        <v>58240</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="5:5">
-      <c r="E182" s="1" t="str">
+        <v>78217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7">
+        <v>44311</v>
+      </c>
+      <c r="C182" s="1">
+        <v>79135</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="5:5">
-      <c r="E183" s="1" t="str">
+        <v>157352</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7">
+        <v>44311</v>
+      </c>
+      <c r="B183" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="5:5">
-      <c r="E184" s="1" t="str">
+        <v>131352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="7">
+        <v>44312</v>
+      </c>
+      <c r="C184" s="1">
+        <v>94962</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="5:5">
-      <c r="E185" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="5:5">
-      <c r="E186" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="5:5">
-      <c r="E187" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="5:5">
-      <c r="E188" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="5:5">
-      <c r="E189" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <v>226314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7">
+        <v>44312</v>
+      </c>
+      <c r="B185" s="1">
+        <v>61360</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="1">
+        <f t="shared" ref="E185:E199" si="10">IF(A185="","",SUM(E184-B185+C185))</f>
+        <v>164954</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7">
+        <v>44313</v>
+      </c>
+      <c r="B186" s="1">
+        <v>49920</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="1">
+        <f t="shared" si="10"/>
+        <v>115034</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7">
+        <v>44314</v>
+      </c>
+      <c r="C187" s="1">
+        <v>126616</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="1">
+        <f t="shared" si="10"/>
+        <v>241650</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="7">
+        <v>44314</v>
+      </c>
+      <c r="B188" s="1">
+        <v>47840</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="1">
+        <f t="shared" si="10"/>
+        <v>193810</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="7">
+        <v>44315</v>
+      </c>
+      <c r="C189" s="1">
+        <v>25323</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="1">
+        <f t="shared" si="10"/>
+        <v>219133</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="7">
+        <v>44315</v>
+      </c>
+      <c r="B190" s="1">
+        <v>47840</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="1">
+        <f t="shared" si="10"/>
+        <v>171293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="7">
+        <v>44316</v>
+      </c>
+      <c r="C191" s="1">
+        <v>47481</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="1">
+        <f t="shared" si="10"/>
+        <v>218774</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="7">
+        <v>44316</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44720</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="1">
+        <f t="shared" si="10"/>
+        <v>174054</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="7">
+        <v>44317</v>
+      </c>
+      <c r="B193" s="1">
+        <v>38480</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="1">
+        <f t="shared" si="10"/>
+        <v>135574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="7">
+        <v>44318</v>
+      </c>
+      <c r="C194" s="1">
+        <v>42205</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="1">
+        <f t="shared" si="10"/>
+        <v>177779</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="7">
+        <v>44318</v>
+      </c>
+      <c r="B195" s="1">
+        <v>40560</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="1">
+        <f t="shared" si="10"/>
+        <v>137219</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="7">
+        <v>44319</v>
+      </c>
+      <c r="C196" s="1">
+        <v>31654</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="1">
+        <f t="shared" si="10"/>
+        <v>168873</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="7">
+        <v>44319</v>
+      </c>
+      <c r="B197" s="1">
+        <v>75920</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="1">
+        <f t="shared" si="10"/>
+        <v>92953</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="7">
+        <v>44320</v>
+      </c>
+      <c r="C198" s="1">
+        <v>31654</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="1">
+        <f t="shared" si="10"/>
+        <v>124607</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="7">
+        <v>44320</v>
+      </c>
+      <c r="B199" s="1">
+        <v>8320</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="1">
+        <f t="shared" si="10"/>
+        <v>116287</v>
       </c>
     </row>
   </sheetData>
@@ -3745,8 +4050,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -3834,7 +4139,13 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="6" spans="6:7">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>25451</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44319</v>
+      </c>
       <c r="F6" s="1">
         <v>15</v>
       </c>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -87,22 +87,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,14 +147,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -133,17 +155,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,7 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,25 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,9 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,37 +333,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,103 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,19 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,16 +438,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,8 +469,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -480,7 +482,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -526,11 +528,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,148 +539,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1037,12 +1037,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
+      <selection pane="bottomLeft" activeCell="E194" sqref="E194:E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3969,14 +3969,14 @@
         <v>44318</v>
       </c>
       <c r="B195" s="1">
-        <v>40560</v>
+        <v>40546</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" si="10"/>
-        <v>137219</v>
+        <f t="shared" ref="E195:E207" si="11">IF(A195="","",SUM(E194-B195+C195))</f>
+        <v>137233</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3990,8 +3990,8 @@
         <v>6</v>
       </c>
       <c r="E196" s="1">
-        <f t="shared" si="10"/>
-        <v>168873</v>
+        <f t="shared" si="11"/>
+        <v>168887</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3999,14 +3999,14 @@
         <v>44319</v>
       </c>
       <c r="B197" s="1">
-        <v>75920</v>
+        <v>75891</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E197" s="1">
-        <f t="shared" si="10"/>
-        <v>92953</v>
+        <f t="shared" si="11"/>
+        <v>92996</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4020,8 +4020,8 @@
         <v>6</v>
       </c>
       <c r="E198" s="1">
-        <f t="shared" si="10"/>
-        <v>124607</v>
+        <f t="shared" si="11"/>
+        <v>124650</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4029,14 +4029,125 @@
         <v>44320</v>
       </c>
       <c r="B199" s="1">
-        <v>8320</v>
+        <v>45740</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E199" s="1">
-        <f t="shared" si="10"/>
-        <v>116287</v>
+        <f t="shared" si="11"/>
+        <v>78910</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="7">
+        <v>44321</v>
+      </c>
+      <c r="C200" s="1">
+        <v>46426</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="1">
+        <f t="shared" si="11"/>
+        <v>125336</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="7">
+        <v>44321</v>
+      </c>
+      <c r="B201" s="1">
+        <v>18711</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="1">
+        <f t="shared" si="11"/>
+        <v>106625</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="7">
+        <v>44322</v>
+      </c>
+      <c r="C202" s="1">
+        <v>211026</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="1">
+        <f t="shared" si="11"/>
+        <v>317651</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="7">
+        <v>44322</v>
+      </c>
+      <c r="B203" s="1">
+        <v>23909</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="1">
+        <f t="shared" si="11"/>
+        <v>293742</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="7">
+        <v>44323</v>
+      </c>
+      <c r="B204" s="1">
+        <v>24947</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="1">
+        <f t="shared" si="11"/>
+        <v>268795</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="7">
+        <v>44324</v>
+      </c>
+      <c r="C205" s="1">
+        <v>113421</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="1">
+        <f t="shared" si="11"/>
+        <v>382216</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="7">
+        <v>44324</v>
+      </c>
+      <c r="B206" s="1">
+        <v>4158</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="1">
+        <f t="shared" si="11"/>
+        <v>378058</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4048,13 +4159,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1428571428571" style="1" customWidth="1"/>
@@ -4153,6 +4264,36 @@
         <v>44307</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>15451</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44326</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="1">
+        <v>2695</v>
+      </c>
+      <c r="G8" s="8">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,9 +78,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,7 +102,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,14 +125,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,16 +138,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,53 +177,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,15 +193,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +279,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,43 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,91 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +434,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,26 +481,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,9 +517,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,8 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,15 +539,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1037,12 +1037,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E194" sqref="E194:E206"/>
+      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -4080,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="E202" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E202:E214" si="12">IF(A202="","",SUM(E201-B202+C202))</f>
         <v>317651</v>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="E203" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>293742</v>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="E204" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>268795</v>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="E205" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>382216</v>
       </c>
     </row>
@@ -4134,21 +4134,138 @@
         <v>44324</v>
       </c>
       <c r="B206" s="1">
-        <v>4158</v>
+        <v>33264</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E206" s="1">
-        <f t="shared" si="11"/>
-        <v>378058</v>
-      </c>
-    </row>
-    <row r="207" spans="5:5">
-      <c r="E207" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+        <f t="shared" si="12"/>
+        <v>348952</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="7">
+        <v>44325</v>
+      </c>
+      <c r="B207" s="1">
+        <v>34304</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="1">
+        <f t="shared" si="12"/>
+        <v>314648</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="7">
+        <v>44326</v>
+      </c>
+      <c r="B208" s="1">
+        <v>42620</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="1">
+        <f t="shared" si="12"/>
+        <v>272028</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="7">
+        <v>44327</v>
+      </c>
+      <c r="B209" s="1">
+        <v>31185</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="1">
+        <f t="shared" si="12"/>
+        <v>240843</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="7">
+        <v>44328</v>
+      </c>
+      <c r="B210" s="1">
+        <v>38462</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="1">
+        <f t="shared" si="12"/>
+        <v>202381</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="7">
+        <v>44329</v>
+      </c>
+      <c r="B211" s="1">
+        <v>33264</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="1">
+        <f t="shared" si="12"/>
+        <v>169117</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="7">
+        <v>44329</v>
+      </c>
+      <c r="C212" s="1">
+        <v>16745</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="1">
+        <f t="shared" si="12"/>
+        <v>185862</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="7">
+        <v>44329</v>
+      </c>
+      <c r="C213" s="1">
+        <v>100237</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="1">
+        <f t="shared" si="12"/>
+        <v>286099</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="7">
+        <v>44330</v>
+      </c>
+      <c r="B214" s="1">
+        <v>36383</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="1">
+        <f t="shared" si="12"/>
+        <v>249716</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4162,7 +4279,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4278,7 +4395,13 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>25451</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44334</v>
+      </c>
       <c r="F8" s="1">
         <v>2695</v>
       </c>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,8 +78,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,36 +97,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,33 +117,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,7 +163,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -193,13 +179,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -216,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,37 +273,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,31 +351,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,73 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,24 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,6 +448,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +491,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,29 +534,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4279,7 +4279,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>25451</v>
+        <v>18771</v>
       </c>
       <c r="B8" s="8">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="F8" s="1">
         <v>2695</v>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -78,40 +78,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,24 +93,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +139,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -178,8 +169,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,15 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +203,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,103 +243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +267,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +291,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,43 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,45 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,8 +479,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,12 +525,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4279,7 +4279,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4409,7 +4409,13 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>16771</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44345</v>
+      </c>
       <c r="F9" s="1">
         <v>9</v>
       </c>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -87,20 +87,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,11 +124,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +135,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +171,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,31 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +249,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,91 +309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +357,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,7 +375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,19 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +500,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,17 +528,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -542,12 +542,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4276,10 +4276,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4423,6 +4423,25 @@
         <v>44329</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>11771</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>16861</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -54,12 +54,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,14 +80,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,9 +102,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,15 +157,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,70 +179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +195,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,37 +250,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +286,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,55 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,43 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +435,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,15 +476,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,42 +535,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,131 +561,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -716,6 +717,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,12 +1041,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <selection pane="bottomLeft" activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -4215,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="E211" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E211:E255" si="13">IF(A211="","",SUM(E210-B211+C211))</f>
         <v>169117</v>
       </c>
     </row>
@@ -4230,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="E212" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>185862</v>
       </c>
     </row>
@@ -4245,7 +4249,7 @@
         <v>6</v>
       </c>
       <c r="E213" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>286099</v>
       </c>
     </row>
@@ -4254,18 +4258,645 @@
         <v>44330</v>
       </c>
       <c r="B214" s="1">
+        <v>37422</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="1">
+        <f t="shared" si="13"/>
+        <v>248677</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="7">
+        <v>44331</v>
+      </c>
+      <c r="B215" s="1">
+        <v>46778</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="1">
+        <f t="shared" si="13"/>
+        <v>201899</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="7">
+        <v>44332</v>
+      </c>
+      <c r="B216" s="1">
         <v>36383</v>
       </c>
-      <c r="D214" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" s="1">
-        <f t="shared" si="12"/>
-        <v>249716</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="7"/>
+      <c r="D216" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="1">
+        <f t="shared" si="13"/>
+        <v>165516</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="7">
+        <v>44333</v>
+      </c>
+      <c r="B217" s="1">
+        <v>56132</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="1">
+        <f t="shared" si="13"/>
+        <v>109384</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="7">
+        <v>44334</v>
+      </c>
+      <c r="B218" s="1">
+        <v>59253</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="1">
+        <f t="shared" si="13"/>
+        <v>50131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="7">
+        <v>44335</v>
+      </c>
+      <c r="B219" s="1">
+        <v>22869</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="1">
+        <f t="shared" si="13"/>
+        <v>27262</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="7">
+        <v>44336</v>
+      </c>
+      <c r="B220" s="1">
+        <v>25988</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="1">
+        <f t="shared" si="13"/>
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="7">
+        <v>44337</v>
+      </c>
+      <c r="B221" s="1">
+        <v>49897</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="1">
+        <f t="shared" si="13"/>
+        <v>-48623</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="7">
+        <v>44338</v>
+      </c>
+      <c r="B222" s="1">
+        <v>38461</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="1">
+        <f t="shared" si="13"/>
+        <v>-87084</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="7">
+        <v>44339</v>
+      </c>
+      <c r="B223" s="1">
+        <v>32226</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="1">
+        <f t="shared" si="13"/>
+        <v>-119310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="7">
+        <v>44340</v>
+      </c>
+      <c r="B224" s="1">
+        <v>47818</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="1">
+        <f t="shared" si="13"/>
+        <v>-167128</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="7">
+        <v>44341</v>
+      </c>
+      <c r="B225" s="1">
+        <v>40541</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="1">
+        <f t="shared" si="13"/>
+        <v>-207669</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="7">
+        <v>44342</v>
+      </c>
+      <c r="B226" s="1">
+        <v>30146</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="1">
+        <f t="shared" si="13"/>
+        <v>-237815</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="7">
+        <v>44343</v>
+      </c>
+      <c r="B227" s="1">
+        <v>23910</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="1">
+        <f t="shared" si="13"/>
+        <v>-261725</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="7">
+        <v>44344</v>
+      </c>
+      <c r="B228" s="1">
+        <v>25988</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="1">
+        <f t="shared" si="13"/>
+        <v>-287713</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="7">
+        <v>44345</v>
+      </c>
+      <c r="B229" s="1">
+        <v>43660</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="1">
+        <f t="shared" si="13"/>
+        <v>-331373</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="7">
+        <v>44346</v>
+      </c>
+      <c r="B230" s="1">
+        <v>54056</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="1">
+        <f t="shared" si="13"/>
+        <v>-385429</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="7">
+        <v>44347</v>
+      </c>
+      <c r="B231" s="1">
+        <v>25988</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="1">
+        <f t="shared" si="13"/>
+        <v>-411417</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="7">
+        <v>44348</v>
+      </c>
+      <c r="B232" s="1">
+        <v>46778</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="1">
+        <f t="shared" si="13"/>
+        <v>-458195</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="7">
+        <v>44349</v>
+      </c>
+      <c r="B233" s="1">
+        <v>55097</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="1">
+        <f t="shared" si="13"/>
+        <v>-513292</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="7">
+        <v>44350</v>
+      </c>
+      <c r="B234" s="1">
+        <v>41581</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="1">
+        <f t="shared" si="13"/>
+        <v>-554873</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="7">
+        <v>44351</v>
+      </c>
+      <c r="B235" s="1">
+        <v>38462</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="1">
+        <f t="shared" si="13"/>
+        <v>-593335</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="7">
+        <v>44352</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44700</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="1">
+        <f t="shared" si="13"/>
+        <v>-638035</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="7">
+        <v>44353</v>
+      </c>
+      <c r="B237" s="1">
+        <v>35344</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="1">
+        <f t="shared" si="13"/>
+        <v>-673379</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="7">
+        <v>44354</v>
+      </c>
+      <c r="B238" s="1">
+        <v>58215</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="1">
+        <f t="shared" si="13"/>
+        <v>-731594</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="7">
+        <v>44355</v>
+      </c>
+      <c r="B239" s="1">
+        <v>54055</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="1">
+        <f t="shared" si="13"/>
+        <v>-785649</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="7">
+        <v>44356</v>
+      </c>
+      <c r="B240" s="1">
+        <v>54056</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="1">
+        <f t="shared" si="13"/>
+        <v>-839705</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="7">
+        <v>44357</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44701</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="1">
+        <f t="shared" ref="E241:E256" si="14">IF(A241="","",SUM(E240-B241+C241))</f>
+        <v>-884406</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="7">
+        <v>44358</v>
+      </c>
+      <c r="B242" s="1">
+        <v>34304</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="1">
+        <f t="shared" si="14"/>
+        <v>-918710</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="11">
+        <v>44332</v>
+      </c>
+      <c r="C243" s="1">
+        <v>94962</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" s="1">
+        <f t="shared" si="14"/>
+        <v>-823748</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="11">
+        <v>44334</v>
+      </c>
+      <c r="C244" s="1">
+        <v>105513</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" s="1">
+        <f t="shared" si="14"/>
+        <v>-718235</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="11">
+        <v>44336</v>
+      </c>
+      <c r="C245" s="1">
+        <v>105513</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="1">
+        <f t="shared" si="14"/>
+        <v>-612722</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="11">
+        <v>44343</v>
+      </c>
+      <c r="C246" s="1">
+        <v>42205</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="1">
+        <f t="shared" si="14"/>
+        <v>-570517</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="11">
+        <v>44343</v>
+      </c>
+      <c r="C247" s="1">
+        <v>63308</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" s="1">
+        <f t="shared" si="14"/>
+        <v>-507209</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="11">
+        <v>44346</v>
+      </c>
+      <c r="C248" s="1">
+        <v>63308</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248" s="1">
+        <f t="shared" si="14"/>
+        <v>-443901</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="11">
+        <v>44348</v>
+      </c>
+      <c r="C249" s="1">
+        <v>100237</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" s="1">
+        <f t="shared" si="14"/>
+        <v>-343664</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="11">
+        <v>44349</v>
+      </c>
+      <c r="C250" s="1">
+        <v>58707</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" s="1">
+        <f t="shared" si="14"/>
+        <v>-284957</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="11">
+        <v>44350</v>
+      </c>
+      <c r="C251" s="1">
+        <v>147718</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" s="1">
+        <f t="shared" si="14"/>
+        <v>-137239</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="11">
+        <v>44354</v>
+      </c>
+      <c r="C252" s="1">
+        <v>105513</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" s="1">
+        <f t="shared" si="14"/>
+        <v>-31726</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="11">
+        <v>44356</v>
+      </c>
+      <c r="C253" s="1">
+        <v>12999</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" s="1">
+        <f t="shared" si="14"/>
+        <v>-18727</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="11">
+        <v>44356</v>
+      </c>
+      <c r="C254" s="1">
+        <v>105513</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="1">
+        <f t="shared" si="14"/>
+        <v>86786</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="11">
+        <v>44359</v>
+      </c>
+      <c r="C255" s="1">
+        <v>100237</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="1">
+        <f t="shared" si="14"/>
+        <v>187023</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="11">
+        <v>44359</v>
+      </c>
+      <c r="B256" s="1">
+        <v>40542</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="1">
+        <f t="shared" si="14"/>
+        <v>146481</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4278,8 +4909,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4439,8 +5070,13 @@
         <v>44350</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>21861</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44356</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +55,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="21">
@@ -80,115 +80,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +107,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +210,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,7 +238,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,13 +298,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,19 +334,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,103 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,29 +444,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +489,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -495,32 +513,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,18 +532,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,134 +564,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -720,6 +726,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,12 +1050,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E258" sqref="E258"/>
+      <selection pane="bottomLeft" activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1113,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E19" si="0">IF(A4="","",SUM(E3-B4+C4))</f>
+        <f t="shared" ref="E4:E11" si="0">IF(A4="","",SUM(E3-B4+C4))</f>
         <v>234041</v>
       </c>
     </row>
@@ -1759,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ref="E44:E76" si="2">IF(A47="","",SUM(E46-B47+C47))</f>
+        <f t="shared" ref="E47:E76" si="2">IF(A47="","",SUM(E46-B47+C47))</f>
         <v>301596</v>
       </c>
     </row>
@@ -2329,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ref="E83:E118" si="4">IF(A85="","",SUM(E84-B85+C85))</f>
+        <f t="shared" ref="E85:E118" si="4">IF(A85="","",SUM(E84-B85+C85))</f>
         <v>148907</v>
       </c>
     </row>
@@ -2839,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" ref="E119:E124" si="5">IF(A119="","",SUM(E118-B119+C119))</f>
+        <f t="shared" ref="E119:E123" si="5">IF(A119="","",SUM(E118-B119+C119))</f>
         <v>129232</v>
       </c>
     </row>
@@ -3109,7 +3118,7 @@
         <v>7</v>
       </c>
       <c r="E137" s="1">
-        <f t="shared" ref="E135:E155" si="7">IF(A137="","",SUM(E136-B137+C137))</f>
+        <f t="shared" ref="E137:E154" si="7">IF(A137="","",SUM(E136-B137+C137))</f>
         <v>106181</v>
       </c>
     </row>
@@ -3379,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="E155" s="1">
-        <f t="shared" ref="E155:E162" si="8">IF(A155="","",SUM(E154-B155+C155))</f>
+        <f t="shared" ref="E155:E160" si="8">IF(A155="","",SUM(E154-B155+C155))</f>
         <v>95574</v>
       </c>
     </row>
@@ -3469,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="E161" s="1">
-        <f t="shared" ref="E161:E189" si="9">IF(A161="","",SUM(E160-B161+C161))</f>
+        <f t="shared" ref="E161:E184" si="9">IF(A161="","",SUM(E160-B161+C161))</f>
         <v>158031</v>
       </c>
     </row>
@@ -3829,7 +3838,7 @@
         <v>7</v>
       </c>
       <c r="E185" s="1">
-        <f t="shared" ref="E185:E199" si="10">IF(A185="","",SUM(E184-B185+C185))</f>
+        <f t="shared" ref="E185:E194" si="10">IF(A185="","",SUM(E184-B185+C185))</f>
         <v>164954</v>
       </c>
     </row>
@@ -3979,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" ref="E195:E207" si="11">IF(A195="","",SUM(E194-B195+C195))</f>
+        <f t="shared" ref="E195:E201" si="11">IF(A195="","",SUM(E194-B195+C195))</f>
         <v>137233</v>
       </c>
     </row>
@@ -4084,7 +4093,7 @@
         <v>6</v>
       </c>
       <c r="E202" s="1">
-        <f t="shared" ref="E202:E214" si="12">IF(A202="","",SUM(E201-B202+C202))</f>
+        <f t="shared" ref="E202:E210" si="12">IF(A202="","",SUM(E201-B202+C202))</f>
         <v>317651</v>
       </c>
     </row>
@@ -4219,7 +4228,7 @@
         <v>7</v>
       </c>
       <c r="E211" s="1">
-        <f t="shared" ref="E211:E255" si="13">IF(A211="","",SUM(E210-B211+C211))</f>
+        <f t="shared" ref="E211:E240" si="13">IF(A211="","",SUM(E210-B211+C211))</f>
         <v>169117</v>
       </c>
     </row>
@@ -4669,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="E241" s="1">
-        <f t="shared" ref="E241:E256" si="14">IF(A241="","",SUM(E240-B241+C241))</f>
+        <f t="shared" ref="E241:E255" si="14">IF(A241="","",SUM(E240-B241+C241))</f>
         <v>-884406</v>
       </c>
     </row>
@@ -4894,9 +4903,471 @@
         <v>7</v>
       </c>
       <c r="E256" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E256:E277" si="15">IF(A256="","",SUM(E255-B256+C256))</f>
         <v>146481</v>
       </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="11">
+        <v>44362</v>
+      </c>
+      <c r="C257" s="1">
+        <v>211026</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" s="1">
+        <f t="shared" si="15"/>
+        <v>357507</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="11">
+        <v>44362</v>
+      </c>
+      <c r="C258" s="1">
+        <v>11501</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="1">
+        <f t="shared" si="15"/>
+        <v>369008</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="11">
+        <v>44364</v>
+      </c>
+      <c r="C259" s="1">
+        <v>52757</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" s="1">
+        <f t="shared" si="15"/>
+        <v>421765</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="11">
+        <v>44366</v>
+      </c>
+      <c r="C260" s="1">
+        <v>65418</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" s="1">
+        <f t="shared" si="15"/>
+        <v>487183</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="11">
+        <v>44367</v>
+      </c>
+      <c r="C261" s="1">
+        <v>52757</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" s="1">
+        <f t="shared" si="15"/>
+        <v>539940</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="11">
+        <v>44369</v>
+      </c>
+      <c r="C262" s="1">
+        <v>105513</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" s="1">
+        <f t="shared" si="15"/>
+        <v>645453</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C263" s="1">
+        <v>263783</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" s="1">
+        <f t="shared" si="15"/>
+        <v>909236</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="11">
+        <v>44372</v>
+      </c>
+      <c r="C264" s="1">
+        <v>126616</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="1">
+        <f t="shared" si="15"/>
+        <v>1035852</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="11">
+        <v>44360</v>
+      </c>
+      <c r="B265" s="1">
+        <v>47820</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="1">
+        <f t="shared" si="15"/>
+        <v>988032</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="11">
+        <v>44361</v>
+      </c>
+      <c r="B266" s="1">
+        <v>40541</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="1">
+        <f t="shared" si="15"/>
+        <v>947491</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="11">
+        <v>44362</v>
+      </c>
+      <c r="B267" s="1">
+        <v>37423</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="1">
+        <f t="shared" si="15"/>
+        <v>910068</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="11">
+        <v>44363</v>
+      </c>
+      <c r="B268" s="1">
+        <v>42621</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="1">
+        <f t="shared" si="15"/>
+        <v>867447</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="11">
+        <v>44364</v>
+      </c>
+      <c r="B269" s="1">
+        <v>39503</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="1">
+        <f t="shared" si="15"/>
+        <v>827944</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="11">
+        <v>44365</v>
+      </c>
+      <c r="B270" s="1">
+        <v>30146</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="1">
+        <f t="shared" si="15"/>
+        <v>797798</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="11">
+        <v>44366</v>
+      </c>
+      <c r="B271" s="1">
+        <v>31186</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" s="1">
+        <f t="shared" si="15"/>
+        <v>766612</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="11">
+        <v>44367</v>
+      </c>
+      <c r="B272" s="1">
+        <v>31186</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="1">
+        <f t="shared" si="15"/>
+        <v>735426</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="11">
+        <v>44368</v>
+      </c>
+      <c r="B273" s="1">
+        <v>41583</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="1">
+        <f t="shared" si="15"/>
+        <v>693843</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="11">
+        <v>44369</v>
+      </c>
+      <c r="B274" s="1">
+        <v>50937</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="1">
+        <f t="shared" si="15"/>
+        <v>642906</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="11">
+        <v>44370</v>
+      </c>
+      <c r="B275" s="1">
+        <v>30147</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="1">
+        <f t="shared" si="15"/>
+        <v>612759</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="11">
+        <v>44371</v>
+      </c>
+      <c r="B276" s="1">
+        <v>30146</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="1">
+        <f t="shared" si="15"/>
+        <v>582613</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="11">
+        <v>44372</v>
+      </c>
+      <c r="B277" s="1">
+        <v>39502</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="1">
+        <f t="shared" si="15"/>
+        <v>543111</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="11">
+        <v>44373</v>
+      </c>
+      <c r="B278" s="1">
+        <v>38462</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="1">
+        <f>IF(A278="","",SUM(E277-B278+C278))</f>
+        <v>504649</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="11">
+        <v>44374</v>
+      </c>
+      <c r="B279" s="1">
+        <v>31186</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="1">
+        <f>IF(A279="","",SUM(E278-B279+C279))</f>
+        <v>473463</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="11">
+        <v>44375</v>
+      </c>
+      <c r="B280" s="1">
+        <v>56136</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="1">
+        <f>IF(A280="","",SUM(E279-B280+C280))</f>
+        <v>417327</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="11">
+        <v>44376</v>
+      </c>
+      <c r="B281" s="1">
+        <v>34305</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="1">
+        <f t="shared" ref="E281:E287" si="16">IF(A281="","",SUM(E280-B281+C281))</f>
+        <v>383022</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="11">
+        <v>44377</v>
+      </c>
+      <c r="B282" s="1">
+        <v>37423</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="1">
+        <f t="shared" si="16"/>
+        <v>345599</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="11">
+        <v>44378</v>
+      </c>
+      <c r="B283" s="1">
+        <v>38463</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="1">
+        <f t="shared" si="16"/>
+        <v>307136</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="11">
+        <v>44378</v>
+      </c>
+      <c r="C284" s="12">
+        <v>211027</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="1">
+        <f t="shared" si="16"/>
+        <v>518163</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="11">
+        <v>44379</v>
+      </c>
+      <c r="B285" s="1">
+        <v>37424</v>
+      </c>
+      <c r="E285" s="1">
+        <f t="shared" si="16"/>
+        <v>480739</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="11">
+        <v>44380</v>
+      </c>
+      <c r="B286" s="1">
+        <v>55093</v>
+      </c>
+      <c r="E286" s="1">
+        <f t="shared" si="16"/>
+        <v>425646</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="11">
+        <v>44381</v>
+      </c>
+      <c r="B287" s="1">
+        <v>21830</v>
+      </c>
+      <c r="E287" s="1">
+        <f t="shared" si="16"/>
+        <v>403816</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="11"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4907,10 +5378,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5054,12 +5525,18 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>11771</v>
       </c>
       <c r="B10" s="8">
         <v>44349</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="8">
+        <v>44362</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5076,6 +5553,30 @@
       </c>
       <c r="B12" s="8">
         <v>44356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11861</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>18531</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>14641</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44380</v>
       </c>
     </row>
   </sheetData>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,9 +55,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]dd\-mmm\-yy;@"/>
@@ -79,6 +79,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,29 +111,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +150,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -140,37 +166,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -185,32 +188,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,67 +250,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,13 +286,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,31 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,84 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,12 +457,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,130 +558,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,12 +1044,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C284" sqref="C284"/>
+      <selection pane="bottomLeft" activeCell="E282" sqref="E282:E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -4903,7 +4897,7 @@
         <v>7</v>
       </c>
       <c r="E256" s="1">
-        <f t="shared" ref="E256:E277" si="15">IF(A256="","",SUM(E255-B256+C256))</f>
+        <f t="shared" ref="E256:E280" si="15">IF(A256="","",SUM(E255-B256+C256))</f>
         <v>146481</v>
       </c>
     </row>
@@ -5233,7 +5227,7 @@
         <v>7</v>
       </c>
       <c r="E278" s="1">
-        <f>IF(A278="","",SUM(E277-B278+C278))</f>
+        <f t="shared" si="15"/>
         <v>504649</v>
       </c>
     </row>
@@ -5248,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="E279" s="1">
-        <f>IF(A279="","",SUM(E278-B279+C279))</f>
+        <f t="shared" si="15"/>
         <v>473463</v>
       </c>
     </row>
@@ -5263,7 +5257,7 @@
         <v>7</v>
       </c>
       <c r="E280" s="1">
-        <f>IF(A280="","",SUM(E279-B280+C280))</f>
+        <f t="shared" si="15"/>
         <v>417327</v>
       </c>
     </row>
@@ -5278,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="E281" s="1">
-        <f t="shared" ref="E281:E287" si="16">IF(A281="","",SUM(E280-B281+C281))</f>
+        <f>IF(A281="","",SUM(E280-B281+C281))</f>
         <v>383022</v>
       </c>
     </row>
@@ -5293,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="E282" s="1">
-        <f t="shared" si="16"/>
+        <f>IF(A282="","",SUM(E281-B282+C282))</f>
         <v>345599</v>
       </c>
     </row>
@@ -5308,7 +5302,7 @@
         <v>7</v>
       </c>
       <c r="E283" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E283:E291" si="16">IF(A283="","",SUM(E282-B283+C283))</f>
         <v>307136</v>
       </c>
     </row>
@@ -5334,6 +5328,9 @@
       <c r="B285" s="1">
         <v>37424</v>
       </c>
+      <c r="D285" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="E285" s="1">
         <f t="shared" si="16"/>
         <v>480739</v>
@@ -5346,6 +5343,9 @@
       <c r="B286" s="1">
         <v>55093</v>
       </c>
+      <c r="D286" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="E286" s="1">
         <f t="shared" si="16"/>
         <v>425646</v>
@@ -5356,18 +5356,75 @@
         <v>44381</v>
       </c>
       <c r="B287" s="1">
-        <v>21830</v>
+        <v>41581</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E287" s="1">
         <f t="shared" si="16"/>
-        <v>403816</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="11"/>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="11"/>
+        <v>384065</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="11">
+        <v>44382</v>
+      </c>
+      <c r="B288" s="1">
+        <v>69129</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="1">
+        <f t="shared" si="16"/>
+        <v>314936</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="11">
+        <v>44383</v>
+      </c>
+      <c r="C289" s="1">
+        <v>195199</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="1">
+        <f t="shared" si="16"/>
+        <v>510135</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="11">
+        <v>44383</v>
+      </c>
+      <c r="B290" s="1">
+        <v>50938</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="1">
+        <f t="shared" si="16"/>
+        <v>459197</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="11">
+        <v>44384</v>
+      </c>
+      <c r="B291" s="1">
+        <v>21831</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="1">
+        <f t="shared" si="16"/>
+        <v>437366</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ledger.xlsx
+++ b/Ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,12 +55,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,25 +79,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,7 +102,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,45 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -188,15 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,14 +210,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +250,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,31 +316,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,115 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,56 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,7 +472,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,7 +481,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,15 +540,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,130 +558,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1044,12 +1044,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E282" sqref="E282:E291"/>
+      <selection pane="bottomLeft" activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -4897,7 +4897,7 @@
         <v>7</v>
       </c>
       <c r="E256" s="1">
-        <f t="shared" ref="E256:E280" si="15">IF(A256="","",SUM(E255-B256+C256))</f>
+        <f t="shared" ref="E256:E282" si="15">IF(A256="","",SUM(E255-B256+C256))</f>
         <v>146481</v>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="E281" s="1">
-        <f>IF(A281="","",SUM(E280-B281+C281))</f>
+        <f t="shared" si="15"/>
         <v>383022</v>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="E282" s="1">
-        <f>IF(A282="","",SUM(E281-B282+C282))</f>
+        <f t="shared" si="15"/>
         <v>345599</v>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
         <v>7</v>
       </c>
       <c r="E283" s="1">
-        <f t="shared" ref="E283:E291" si="16">IF(A283="","",SUM(E282-B283+C283))</f>
+        <f t="shared" ref="E283:E292" si="16">IF(A283="","",SUM(E282-B283+C283))</f>
         <v>307136</v>
       </c>
     </row>
@@ -5416,14 +5416,49 @@
         <v>44384</v>
       </c>
       <c r="B291" s="1">
-        <v>21831</v>
+        <v>68611</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1">
         <f t="shared" si="16"/>
-        <v>437366</v>
+        <v>390586</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="11">
+        <v>44385</v>
+      </c>
+      <c r="B292" s="1">
+        <v>56655</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="1">
+        <f t="shared" si="16"/>
+        <v>333931</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="11">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="11">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="11">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="11">
+        <v>44389</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5473,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5596,12 +5631,18 @@
         <v>44362</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>16861</v>
       </c>
       <c r="B11" s="8">
         <v>44350</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44386</v>
       </c>
     </row>
     <row r="12" spans="1:2">
